--- a/模型-训练数据.xlsx
+++ b/模型-训练数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vs_code\model_hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13065" tabRatio="442"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="442"/>
   </bookViews>
   <sheets>
     <sheet name="中文大模型" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
   <si>
     <t>模型名称</t>
   </si>
@@ -58,15 +58,9 @@
     <t>社区</t>
   </si>
   <si>
-    <t>BELLE</t>
-  </si>
-  <si>
     <t>https://github.com/LianjiaTech/BELLE</t>
   </si>
   <si>
-    <t>llama、bloomz</t>
-  </si>
-  <si>
     <t>7B 13B</t>
   </si>
   <si>
@@ -79,15 +73,9 @@
     <t>Chinese-LLaMA-Alpaca</t>
   </si>
   <si>
-    <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca</t>
-  </si>
-  <si>
     <t>7B 13B 33B</t>
   </si>
   <si>
-    <t>中文alpach数据（51K）</t>
-  </si>
-  <si>
     <t>基于llama的中文大模型，和Chinese-vicuna非常接近，都是专注于做低资源的模型训练、部署。</t>
   </si>
   <si>
@@ -100,32 +88,6 @@
     <t>多规格</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>丝绸之路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、Guanaco、CnewSum、Coco-CN、CoQA</t>
-    </r>
-  </si>
-  <si>
-    <t>华中科技大学和商汤几个员工开发的一系列模型，有一些人评测认为效果不是很好</t>
-  </si>
-  <si>
-    <t>ChatGLM</t>
-  </si>
-  <si>
     <t>https://github.com/THUDM/ChatGLM-6B</t>
   </si>
   <si>
@@ -139,9 +101,6 @@
   </si>
   <si>
     <t>未知</t>
-  </si>
-  <si>
-    <t>清华GLM系列中最热门的中文大模型</t>
   </si>
   <si>
     <t>白泽</t>
@@ -625,11 +584,8 @@
     <t>数据规模</t>
   </si>
   <si>
-    <t>数据类型（预训练|指令|微调|对齐）</t>
-  </si>
-  <si>
     <t>https://huggingface.co/IDEA-CCNL/Ziya-LLaMA-13B-v1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -642,15 +598,15 @@
       </rPr>
       <t>更新时间</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Facico/Chinese-Vicuna/blob/master/docs/readme-zh.md</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Chinese-Vicuna</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -667,7 +623,332 @@
       </rPr>
       <t xml:space="preserve"> 13B</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于llama和lora等技术，提供了低资源使用llama的训练、部署方案。相比于提高模型准确率，更关注于怎么用少量的显卡资源做训练、微调和部署。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于llama+LORA方案</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GPU版本: GPU显卡的compute capability&lt;7.5都会有不适配8bit优化
+2.用V100的话，可以把load_in_8bit改成False，loss应该就不容易炸了。
+3.3张2080,70w的数据大概70h</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facio</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律领域(7B)</t>
+  </si>
+  <si>
+    <t>医疗领域（7B）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese-Vicuna/Chinese-Vicuna-7b-legal-lora</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/Chinese-Vicuna/Chinese-Vicuna-7b-legal-lora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instruct_chat（51.6K）、sharegpt、alpaca-instruction-chinese-dataset，                       Chinese-Vicuna/guanaco_belle_merge_v1.0（694K，instruction+output）,             JosephusCheung/GuanacoDataset </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>按chat格式格式化数据，基于chatv1，使用continue-training 继续训练将近6 epoch；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese-Vicuna/Chinese-Vicuna-continue-finetune-7epoch-cMedQA2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/Chinese-Vicuna/Chinese-Vicuna-continue-finetune-7epoch-cMedQA2</t>
+  </si>
+  <si>
+    <t>通用模型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chatgpt关于JEC-QA中国法考数据集的解答 (2000条)
+ChatGPT扮演律师解答问题 （5000条）
+法律知识问答（16209条）
+共23209条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama7B</t>
+  </si>
+  <si>
+    <t>belle0.5M+guanaco</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetuned on belle0.5M+guanaco(2epoch) and continue-finetuned on cMedQA2.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于llama+LORA方案，领域微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于llama+LORA方案，领域微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> belle0.5 M + guanaco (2epoch)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上微调，并在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cMedQA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上继续微调。该模型基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> llama7B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，因此可以加载到与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> llama7B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关的应用程序中</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese-Vicuna</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型（预训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Micrsofot Yahei"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Micrsofot Yahei"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Micrsofot Yahei"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对齐）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令微调</t>
+  </si>
+  <si>
+    <t>指令微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这是Chinese-Vicuna在legal领域上微调后的lora模型，可直接配合Llama7B使用
+legal的数据我们使用 Chatgpt关于JEC-QA中国法考数据集的解答 、 ChatGPT扮演律师解答问题 、法律知识问答 三种来源的数据，总计23209条。尽管我们能够找到一些法律真实问答的数据，但此类数据往往带噪（比如不耐烦地回答“问问你自己吧”），因此并没有使用
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama、bloomz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 选择基础模型对于 LoRA 调整的有效性具有显著影响；2）增加训练数据量可以持续提高LoRA模型的有效性；3）LoRA 调整受益于模型参数的数量。对于LoRA方案的使用，我们建议可以在已经完成了指令学习的模型的基础上针对特定任务做loRA的自适应训练。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoRA和增量微调在math_0.25M表现达到0.586和0.559</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BelleGroup/train_3.5M_CN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/BelleGroup/train_3.5M_CN/tree/main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>约350万条由BELLE项目生成的中文指令数据。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用LLaMA基础模型，LoRA训练和全参数微调，使用增量全参数微调,中文指令数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELLE</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -678,51 +959,481 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000条</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000条</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于llama和lora等技术，提供了低资源使用llama的训练、部署方案。相比于提高模型准确率，更关注于怎么用少量的显卡资源做训练、微调和部署。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于llama+LORA方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+      <t>K</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5K</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在原版LLaMA的基础上扩充了20000个中文tokens，提升了编码效率和中文语义理解能力。并使用了中文数据进行二次预训练，进一步提升了中文基础语义理解能力。同时，中文Alpaca模型进一步使用了中文指令数据进行精调，显著提升了模型对指令的理解和执行能力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在原LLaMA词表的基础上扩充了20000个中文tokens
+2. 二次预训练
+3. 指令精调 4. LoRA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLE-train、BELLE-eval,BelleGroup/train_3.5M_CN(单轮和多轮会话数据)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中文alpach数据（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChatGPT (gpt-3.5-turbo)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爬取的指令数据）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca/blob/main/data/pt_sample_data.txt</t>
+  </si>
+  <si>
+    <t>Chinese-LLaMA-Alpaca</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca/blob/main/data/alpaca_data_zh_51k.json</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpaca_data_zh_51k</t>
+  </si>
+  <si>
+    <t>51k个从ChatGPT (gpt-3.5-turbo)爬取的指令数据</t>
+  </si>
+  <si>
+    <t>CLM任务预训练样例数据</t>
+  </si>
+  <si>
+    <t>pt_sample_data</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>125987行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用模型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤科技&amp;华中师范大学</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>丝绸之路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、Guanaco、CnewSum、Coco-CN、CoQA，Luotuo_all_data(169K)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uotuo</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用LLaMA基础模型，LoRA训练使用指令微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BELLE-train、BELLE-eval</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>instruct_chat（51.6K）、sharegpt、alpaca-instruction-chinese-dataset，                       Chinese-Vicuna/guanaco_belle_merge_v1.0（694K，instruction+output）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.GPU版本: GPU显卡的compute capability&lt;7.5都会有不适配8bit优化
-2.用V100的话，可以把load_in_8bit改成False，loss应该就不容易炸了。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学和商汤几个员工开发的一系列模型，有一些人评测认为效果不是很好，提供了多个不同nlp任务的colab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>清华GLM系列中最热门的中文大模型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ChatGLM-6B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个开源的、支持中英双语问答的对话语言模型，基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> General Language Model (GLM) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>架构，具有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 62 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亿参数。结合模型量化技术，用户可以在消费级的显卡上进行本地部署（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">INT4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>量化级别下最低只需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6GB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显存）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ChatGLM-6B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ChatGLM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相同的技术，针对中文问答和对话进行了优化。经过约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标识符的中英双语训练，辅以监督微调、反馈自助、人类反馈强化学习等技术的加持，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">62 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亿参数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ChatGLM-6B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经能生成相当符合人类偏好的回答。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4T 中英标识符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未找到更多细节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未找到更多细节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MMLU 47.86
+C-Eval 51.7
+GSM8K 32.37
+BBH 33.68          </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-Eval 41.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ChatGLM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2—6B</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白泽，54K/57K/47K dialogs from Quora, StackOverFlow and MedQuAD questions</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7B 13B 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GLM基座模型，使用P-Tuning v2 与 全参数微调</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于LLaMA基座模型，使用LoRA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,18 +1463,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -802,6 +1501,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4B5563"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -828,7 +1566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,25 +1585,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1146,24 +1896,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="53.25" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="80.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="43" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,117 +1942,180 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>188</v>
+      <c r="I1" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>206</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L2">
         <v>20230706</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3">
+        <v>20230706</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="27">
-      <c r="A5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4">
+        <v>20230706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="162">
+      <c r="A5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="162">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1310,77 +2123,104 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
+      <c r="G6" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="51" customHeight="1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="148.5">
+      <c r="A8" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="108">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1388,19 +2228,22 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
+      <c r="G9" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1412,24 +2255,24 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1438,301 +2281,301 @@
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="27">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.5">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="67.5">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.5">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1741,15 +2584,15 @@
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.5">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1758,80 +2601,80 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
@@ -1864,411 +2707,495 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57">
+    <row r="1" spans="1:9" ht="41.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>199</v>
+        <v>123</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>153</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
+        <v>225</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="108">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D20" t="s">
         <v>175</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
         <v>176</v>
       </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>179</v>
       </c>
-      <c r="E17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="108">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="1"/>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25">
+      <c r="A23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -2278,19 +3205,21 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C22" r:id="rId19"/>
+    <hyperlink ref="C10" r:id="rId20"/>
+    <hyperlink ref="C24" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/模型-训练数据.xlsx
+++ b/模型-训练数据.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="中文大模型" sheetId="6" r:id="rId1"/>
     <sheet name="训练数据" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="459">
   <si>
     <t>模型名称</t>
   </si>
@@ -112,9 +113,6 @@
     <t>开源聊天模型，通过和chatgpt聊天构建了100k数据，并利用Alpaca的训练数据做增强。同时提供了54K、57K、47K对话数据Quora, StackOverFlow, MedQuAD。使用lora技术训练模型。提供了通过与chatgpt聊天构建训练数据的脚本。提供了完整的训练代码和网上体验地址https://huggingface.co/spaces/project-baize/chat-with-baize。</t>
   </si>
   <si>
-    <t>凤凰</t>
-  </si>
-  <si>
     <t>https://github.com/FreedomIntelligence/LLMZoo</t>
   </si>
   <si>
@@ -124,21 +122,9 @@
     <t>phoenix-sft-data-v1</t>
   </si>
   <si>
-    <t>linly-OpenLLama</t>
-  </si>
-  <si>
-    <t>https://github.com/CVI-SZU/Linly</t>
-  </si>
-  <si>
     <t>7B 13B 33B 65B</t>
   </si>
   <si>
-    <t>预训练：ClueCorpusSmall、中英翻译数据、news commentary v13、中文科学文献数据csl</t>
-  </si>
-  <si>
-    <t>做了从头开始的训练</t>
-  </si>
-  <si>
     <t>Moss</t>
   </si>
   <si>
@@ -163,12 +149,6 @@
     <t>元语智能</t>
   </si>
   <si>
-    <t>输入长度达到4K</t>
-  </si>
-  <si>
-    <t>CPM-Bee</t>
-  </si>
-  <si>
     <t>https://github.com/OpenBMB/CPM-Bee</t>
   </si>
   <si>
@@ -178,9 +158,6 @@
     <t>OpenBMB</t>
   </si>
   <si>
-    <t>智源和清华联合构建的openbmb和面壁智能联合研发。悟道系列</t>
-  </si>
-  <si>
     <t>EVA</t>
   </si>
   <si>
@@ -196,9 +173,6 @@
     <t>WudaoCorpus-Dialog清洗后</t>
   </si>
   <si>
-    <t>大规模中文开放域对话系统，发布于chatgpt之前，清华朱小燕、黄民烈研究组。悟道系列</t>
-  </si>
-  <si>
     <t>姜子牙</t>
   </si>
   <si>
@@ -211,27 +185,12 @@
     <t>孟子</t>
   </si>
   <si>
-    <t>https://github.com/Langboat/Mengzi</t>
-  </si>
-  <si>
     <t>澜舟科技</t>
   </si>
   <si>
-    <t>澜舟开放的一系列模型，一般都不大，和idea类似。孟子GPT和子牙一样，是chatgpt之后研发的大模型。</t>
-  </si>
-  <si>
-    <t>紫东太初</t>
-  </si>
-  <si>
-    <t>https://gitee.com/zidongtaichu/multi-modal-models</t>
-  </si>
-  <si>
     <t>~1B , ~10B , ~100B</t>
   </si>
   <si>
-    <t>自动化所</t>
-  </si>
-  <si>
     <t>CLUE、WMT</t>
   </si>
   <si>
@@ -247,9 +206,6 @@
     <t>华为</t>
   </si>
   <si>
-    <t>200B模型不开源，训练资源为64卡昇腾910。约1.1TB的高质量中文语料数据集，经统计Token数量约为250B规模</t>
-  </si>
-  <si>
     <t>Chinese-Transformer-XL</t>
   </si>
   <si>
@@ -265,9 +221,6 @@
     <t>智源研究院</t>
   </si>
   <si>
-    <t>WuDaoCorpus</t>
-  </si>
-  <si>
     <t>不是现在意义上的大模型。使用了智源研究院发布的中文预训练语料WuDaoCorpus 。具体地，我们使用了WuDaoCorpus中来自百度百科+搜狗百科（133G）、知乎（131G）、百度知道（38G）的语料，一共303GB数据。悟道系列</t>
   </si>
   <si>
@@ -286,9 +239,6 @@
     <t>虎博网络技术（上海）有限公司</t>
   </si>
   <si>
-    <t>自研整合，提供了预训练数据集中英文各50G，微调数据中英文共120W，外部检索数据20W左右</t>
-  </si>
-  <si>
     <t>涵盖金融，法律，百科。有比较详细的介绍，可以关注</t>
   </si>
   <si>
@@ -304,21 +254,12 @@
     <t>人大</t>
   </si>
   <si>
-    <t>yulan-test测试数据，训练数据未提供</t>
-  </si>
-  <si>
     <t>熊猫</t>
   </si>
   <si>
-    <t>https://github.com/dandelionsllm/pandallm</t>
-  </si>
-  <si>
     <t>维基百科(wiki2019zh)、新闻语料(news2016zh)、百科问答(baike2018qa)、社区问答json版(webtext2019zh)、翻译语料(translation2019zh)、Chinese Open Instruction Generalist (COIG)</t>
   </si>
   <si>
-    <t>本草</t>
-  </si>
-  <si>
     <t>https://github.com/scir-hi/huatuo-llama-med-chinese</t>
   </si>
   <si>
@@ -328,12 +269,6 @@
     <t>哈工大</t>
   </si>
   <si>
-    <t>提供了训练过程的记录，https://wandb.ai/thinksoso/llama_med/runs/a5wgcnzt/overview?workspace=user-thinksoso</t>
-  </si>
-  <si>
-    <t>Anima</t>
-  </si>
-  <si>
     <t>https://github.com/lyogavin/Anima</t>
   </si>
   <si>
@@ -346,27 +281,12 @@
     <t>guannaco_belle_merge_v1.0</t>
   </si>
   <si>
-    <t>中文领域中使用Qlora训练的模型，使用1张H100训练了1000 step，声称达到了中文最好成绩。提供了较多的训练细节</t>
-  </si>
-  <si>
     <t>Guanaco</t>
   </si>
   <si>
-    <t>https://huggingface.co/timdettmers/guanaco-33b</t>
-  </si>
-  <si>
     <t>华盛顿大学</t>
   </si>
   <si>
-    <t>CaMA</t>
-  </si>
-  <si>
-    <t>法律模型</t>
-  </si>
-  <si>
-    <t>浙江大学</t>
-  </si>
-  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -500,9 +420,6 @@
   </si>
   <si>
     <t>https://huggingface.co/datasets/FreedomIntelligence/phoenix-sft-data-v1</t>
-  </si>
-  <si>
-    <t>港科大凤凰大模型的训练数据</t>
   </si>
   <si>
     <t>enwik8</t>
@@ -585,7 +502,7 @@
   </si>
   <si>
     <t>https://huggingface.co/IDEA-CCNL/Ziya-LLaMA-13B-v1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,88 +515,71 @@
       </rPr>
       <t>更新时间</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Facico/Chinese-Vicuna/blob/master/docs/readme-zh.md</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chinese-Vicuna</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 13B</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于llama和lora等技术，提供了低资源使用llama的训练、部署方案。相比于提高模型准确率，更关注于怎么用少量的显卡资源做训练、微调和部署。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于llama+LORA方案</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.GPU版本: GPU显卡的compute capability&lt;7.5都会有不适配8bit优化
 2.用V100的话，可以把load_in_8bit改成False，loss应该就不容易炸了。
 3.3张2080,70w的数据大概70h</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Facio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>法律领域(7B)</t>
   </si>
   <si>
     <t>医疗领域（7B）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chinese-Vicuna/Chinese-Vicuna-7b-legal-lora</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://huggingface.co/Chinese-Vicuna/Chinese-Vicuna-7b-legal-lora</t>
   </si>
   <si>
     <t xml:space="preserve">instruct_chat（51.6K）、sharegpt、alpaca-instruction-chinese-dataset，                       Chinese-Vicuna/guanaco_belle_merge_v1.0（694K，instruction+output）,             JosephusCheung/GuanacoDataset </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>按chat格式格式化数据，基于chatv1，使用continue-training 继续训练将近6 epoch；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chinese-Vicuna/Chinese-Vicuna-continue-finetune-7epoch-cMedQA2</t>
@@ -689,33 +589,33 @@
   </si>
   <si>
     <t>通用模型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chatgpt关于JEC-QA中国法考数据集的解答 (2000条)
 ChatGPT扮演律师解答问题 （5000条）
 法律知识问答（16209条）
 共23209条</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>llama7B</t>
   </si>
   <si>
     <t>belle0.5M+guanaco</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>finetuned on belle0.5M+guanaco(2epoch) and continue-finetuned on cMedQA2.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于llama+LORA方案，领域微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于llama+LORA方案，领域微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -804,11 +704,11 @@
       </rPr>
       <t>相关的应用程序中</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chinese-Vicuna</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -878,56 +778,56 @@
       </rPr>
       <t>对齐）</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>指令微调</t>
   </si>
   <si>
     <t>指令微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>指令微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">这是Chinese-Vicuna在legal领域上微调后的lora模型，可直接配合Llama7B使用
 legal的数据我们使用 Chatgpt关于JEC-QA中国法考数据集的解答 、 ChatGPT扮演律师解答问题 、法律知识问答 三种来源的数据，总计23209条。尽管我们能够找到一些法律真实问答的数据，但此类数据往往带噪（比如不耐烦地回答“问问你自己吧”），因此并没有使用
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>llama、bloomz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1) 选择基础模型对于 LoRA 调整的有效性具有显著影响；2）增加训练数据量可以持续提高LoRA模型的有效性；3）LoRA 调整受益于模型参数的数量。对于LoRA方案的使用，我们建议可以在已经完成了指令学习的模型的基础上针对特定任务做loRA的自适应训练。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BELLE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>LoRA和增量微调在math_0.25M表现达到0.586和0.559</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BelleGroup/train_3.5M_CN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://huggingface.co/datasets/BelleGroup/train_3.5M_CN/tree/main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>约350万条由BELLE项目生成的中文指令数据。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>使用LLaMA基础模型，LoRA训练和全参数微调，使用增量全参数微调,中文指令数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -944,11 +844,11 @@
       </rPr>
       <t>ELLE</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3.5M</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -965,29 +865,29 @@
       </rPr>
       <t>K</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5K</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>在原版LLaMA的基础上扩充了20000个中文tokens，提升了编码效率和中文语义理解能力。并使用了中文数据进行二次预训练，进一步提升了中文基础语义理解能力。同时，中文Alpaca模型进一步使用了中文指令数据进行精调，显著提升了模型对指令的理解和执行能力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1. 在原LLaMA词表的基础上扩充了20000个中文tokens
 2. 二次预训练
 3. 指令精调 4. LoRA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BELLE-train、BELLE-eval,BelleGroup/train_3.5M_CN(单轮和多轮会话数据)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -998,6 +898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1019,6 +920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1040,23 +942,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>爬取的指令数据）</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca/blob/main/data/pt_sample_data.txt</t>
   </si>
   <si>
     <t>Chinese-LLaMA-Alpaca</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ymcui/Chinese-LLaMA-Alpaca/blob/main/data/alpaca_data_zh_51k.json</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>alpaca_data_zh_51k</t>
@@ -1069,19 +972,15 @@
   </si>
   <si>
     <t>pt_sample_data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>125987行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>通用模型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>商汤科技&amp;华中师范大学</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1098,7 +997,7 @@
       </rPr>
       <t>、Guanaco、CnewSum、Coco-CN、CoQA，Luotuo_all_data(169K)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1115,19 +1014,19 @@
       </rPr>
       <t>uotuo</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>使用LLaMA基础模型，LoRA训练使用指令微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>华中科技大学和商汤几个员工开发的一系列模型，有一些人评测认为效果不是很好，提供了多个不同nlp任务的colab</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1149,6 +1048,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1170,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1191,6 +1092,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,6 +1114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1233,6 +1136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1254,6 +1158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1275,6 +1180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1296,6 +1202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,6 +1224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1338,102 +1246,2518 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>已经能生成相当符合人类偏好的回答。</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.4T 中英标识符</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>暂未找到更多细节</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂未找到更多细节</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MMLU 47.86
 C-Eval 51.7
 GSM8K 32.37
 BBH 33.68          </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>C-Eval 41.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ChatGLM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2—6B</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>白泽，54K/57K/47K dialogs from Quora, StackOverFlow and MedQuAD questions</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7B 13B 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>llama</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于GLM基座模型，使用P-Tuning v2 与 全参数微调</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.58GB</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/FreedomIntelligence/LLMZoo/blob/main/assets/llmzoo.pdf</t>
+  </si>
+  <si>
+    <t>tech report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA </t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13971v1</t>
+  </si>
+  <si>
+    <t>Self-Instruct</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2212.10560</t>
+  </si>
+  <si>
+    <t>https://github.com/LianjiaTech/BELLE/tree/main/docs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08177</t>
+  </si>
+  <si>
+    <t>1.ChatGLM-6B 在 1:1 比例的中英语料上训练了 1T 的token量，兼具双语能力
+2.吸取 GLM-130B 训练经验，修正了二维 RoPE 位置编码实现，使用传统FFN结构
+3.相比 GLM-10B（序列长度1024），ChatGLM-6B 序列长度达 2048，支持更长对话和应用。
+4.使用了监督微调（Supervised Fine-Tuning）、反馈自助（Feedback Bootstrap）、人类反馈强化学习（Reinforcement Learning from Human Feedback） 等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://openreview.net/pdf?id=-Aw0rrrPUF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.利用chatgpt生成高质量的多轮会话
+2.使用peft增强LLaMA，将LoRA应用到LLaMA的所有Linear层上，提高了可训练参数和适配能力。
+3.使用自蒸馏反馈技术SDF提升baize，在SDF阶段将LoRA与应用到所有Linear层,SDF不需要reward model，比RLHF快三倍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B，7/13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoenix-sft-data-v1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>1K+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>港科大凤凰大模型的训练数据，包含指令数据和对话数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELLE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大型语言模型“凤凰”，在开源的英文和中文模型中取得有竞争性的表现，同时在资源有限（涵盖拉丁语和非拉丁语)表现出色,开源模型与数据
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用指令微调和对话微调
+2.最大上下文长度为2048
+3.使用AdamW优化器
+4.batch size = 256,epochs =3 
+5.lr =2e-5, weight decay = 0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01196</t>
+  </si>
+  <si>
+    <t>Phoenix/Chimera</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基于LLaMA基座模型，使用LoRA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoenix是基于BLOOMZ，Chimera是基于LLaMA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/CVI-SZU/Linly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B 13B 33B 65B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>“伶荔（Linly）”项目团队</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/636994073</t>
+  </si>
+  <si>
+    <t>linly-OpenLLama</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.superclueai.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预训练：ClueCorpusSmall、中英翻译数据、news commentary v13、中文科学文献数据csl，在第一阶段预训练，共使用100GB语料，其中20G中文语料、10G平行语料、70G英文语料。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首先在大规模中英文语料上训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，词表大小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据结巴分词词频前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的词表扩充中文词，并扩充简繁体汉字。扩充后词表大小为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 66242</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们首先训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型，基本上采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LLaMA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的训练参数，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Batch Size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通过梯度累积实现。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sequence Length: 2048
+Batch Size: 4096
+Learning Rate: 3e-4
+cosine schedule, 0.1 weight decay</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA+LoRA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linly-OpenLLaMA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Meta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同的模型结构和训练参数从头预训练。使用的数据包含中、英文无监督数据和平行语料，在语料上重新训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> spm tokenizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，在中文上获得字词结合的分词效果。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>moss-003-sft-data，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moss-002-sft-data，moss-003-sft-plugin-data，moss-003-pm-data</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于 MOSS 基座模型进行 SFT 训练</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSS是一个支持中英双语和多种插件的开源对话语言模型，moss-moon系列模型具有160亿参数，在FP16精度下可在单张A100/A800或两张3090显卡运行，在INT4/8精度下可在单张3090显卡运行。MOSS基座语言模型在约七千亿中英文以及代码单词上预训练得到，后续经过对话指令微调、插件增强学习和人类偏好训练具备多轮对话能力及使用多种插件的能力。
+局限性：由于模型参数量较小和自回归生成范式，MOSS仍然可能生成包含事实性错误的误导性回复或包含偏见/歧视的有害内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1fa4y1V7xG/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSS+SFT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输入长度达到4K，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChatYuan-large-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个支持中英双语的功能型对话语言大模型。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChatYuan-large-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用了和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版本相同的技术方案，在微调数据、人类反馈强化学习、思维链等方面进行了优化。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChatYuan-large-v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChatYuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系列中以轻量化实现高质量效果的模型之一，用户可以在消费级显卡、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>甚至手机上进行推理（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">INT4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最低只需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 400M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未找到相关信息</t>
+  </si>
+  <si>
+    <t>暂未找到相关信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智源和清华联合构建的openbmb和面壁智能联合研发。悟道系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   CPM-Bee是一个完全开源、允许商用的百亿参数中英文基座模型，也是CPM-Live训练的第二个里程碑。它采用Transformer自回归架构（auto-regressive），在超万亿（trillion）高质量语料上进行预训练，拥有强大的基础能力。开发者和研究者可以在CPM-Bee基座模型的基础上在各类场景进行适配来以创建特定领域的应用模型。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身即基座模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中文的Zero-CLUE评测基准上，CPM-Bee可以大幅超越其他模型，位列中文大模型第一。在英文评测基准上，CPM-Bee也展现出了和开源模型LLaMA相当的效果。</t>
+  </si>
+  <si>
+    <t>CPM-Bee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全参数微调和参数高效的增量微调</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大规模中文开放域对话系统，发布于chatgpt之前，清华朱小燕、黄民烈研究组。悟道系列。       EVA 是目前最大的开源中文预训练对话模型，拥有28亿参数，主要擅长开放域闲聊，目前有 1.0 和 2.0 两个版本。其中，1.0版本在 WudaoCorpus-Dialog 上训练而成，2.0 版本在从 WudaoCorpus-Dialog 中清洗出的更高质量的对话数据上训练而成，模型性能也明显好于 EVA1.0。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2203.09313</t>
+  </si>
+  <si>
+    <t>Transformer-based</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B 13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自研整合，提供了预训练数据集中英文各50G，微调数据中英文共120W，外部检索数据20W左右</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Instruct构造的数据（约2M）：BELLE、Alpaca、Alpaca-GPT4等多个数据集
+内部收集Code数据（300K）：包含leetcode、多种Code任务形式
+内部收集推理/逻辑相关数据（500K）：推理、申论、数学应用题、数值计算等
+中英平行语料（2M）：中英互译语料、COT类型翻译语料、古文翻译语料等
+多轮对话语料（500K）：Self-Instruct生成、任务型多轮对话、Role-Playing型多轮对话等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在LLaMA词表的基础上增加了7k+个常见中文字，通过和LLaMA原生的词表去重，最终得到一个39410大小的词表
+2.在增量训练过程中，使用了160张40GB的A100，采用2.6M tokens的训练集样本数量和FP 16的混合精度，吞吐量达到118 TFLOP per GPU per second。因此我们能够在8天的时间里在原生的LLaMA-13B模型基础上，增量训练110B tokens的数据。
+3.多任务有监督微调 Supervised finetuning
+4.人类反馈学习 Human-Feedback training
+5.继续预训练 Continual pretraining</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA+Continue Pretraining+SFT+HFT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Langboat/Mengzi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2110.06696</t>
+  </si>
+  <si>
+    <t>澜舟开放的一系列模型，一般都不大，和idea类似。孟子GPT和子牙一样，是chatgpt之前研发的大模型。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.词表 21,128 tokens
+2.预训练：random mask 15% for MLM,  
+3.limit max length = 512, batch size = 128
+4.mixed-batch training with LAMB optimizer
+5.前9/10的epochs sequence length = 128,batch sizes = 16384,最后1/10是sequence length = 512,batch sizes = 32768</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于语言学信息融入和训练加速等方法，Pretraining+Fine-tuning</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/zidongtaichu/multi-modal-models</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫东太初</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院 自动化所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200B模型不开源，训练资源为64卡昇腾910。约1.1TB的高质量中文语料数据集，经统计Token数量约为250B规模       工                     业界首个2000亿参数中文自回归语言模型「鹏程.盘古α」
+代码、模型逐步全开源
+首创顺序自回归预训练语言模型ALM
+MindSpore超大规模自动并行技术
+模型基于国产全栈式软硬件协同生态（MindSpore+CANN+昇腾910+ModelArts）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>约1.1TB的高质量中文语料数据集，经统计Token数量约为250B规模</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://openi.pcl.ac.cn/PCL-Platform.Intelligence/PanGu-Alpha/src/branch/master/PANGU-%ce%b1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.第一阶段 使用2048个910AI加速处理核心，第二阶段使用1024个加速处理核心
+2.使用sentence piece，词表40000.
+3.sequence length = 1024
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分布式训练，使用2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>048个910AI加速处理器</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WuDaoCorpus，使用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WuDaoCorpus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中来自百度百科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搜狗百科（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>133G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、知乎（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）、百度知道（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的语料，一共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>303GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型的finetune基于使用DeepSpeed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOM 基础上，在模型架构和算法上做了如下优化：
+指令完成监督微调的创新算法以获得更好的可学习型(learnability)，
+运用 ensemble 和 probabilistic modeling 的方法实现更可控的事实性(factuality)和创造性(generativeness)，
+在并行训练上，我们突破了 deep-speed 等主流框架中若干内存和通信问题，使得在千卡环境下数月无间断，
+对中文语言的更不规则的分布，从 tokenizer 到训练算法上做了更适合的算法优化。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>QLoRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>，以tigerbot-7b-sft模型为基座，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>medical-qa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据上微调的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>。在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max_length=1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>的配置下，微调可以在1张RTX 3090（24G）上运行</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/Toyhom/Chinese-medical-dialogue-data</t>
+  </si>
+  <si>
+    <t>Chinese medical dialogue data 中文医疗对话数据集</t>
+  </si>
+  <si>
+    <r>
+      <t>TigerBot-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7b</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Andriatria_男科&gt; 94596个问答对 &lt;IM_内科&gt; 220606个问答对 &lt;OAGD_妇产科&gt; 183751个问答对 &lt;Oncology_肿瘤科&gt; 75553个问答对 &lt;Pediatric_儿科&gt; 101602个问答对 &lt;Surgical_外科&gt; 115991个问答对 总计 792099个问答对</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>792099个问答对</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TigerResearch/TigerBot/wiki/PEFT-TigerBot-7b-with-QLoRA,-building-an-domain-LLM-on-one-consumer-level-GPU-in-hours</t>
+  </si>
+  <si>
+    <t>社区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.基于250K指令数据，采用 LLaMA 基本模型对指令进行了微调。对13B/65B LLaMA 模型进行全参数微调，并使用基于 DeepSpeed的数据平行、ZERO和FlashAttention技术，在两台每台8卡的 A800-80G 图形处理器服务器上进行分布式训练；
+2.采用了一种类似于 Vicuna 的特殊掩蔽机制来计算损失函数，将多回合对话数据连接成一个长句，只计算模型生成的文本部分的损失值。该方法可以减少对话分裂引起的计算量，保证训练成本低。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yulan-test测试数据，训练数据未提供，90K中文和90K英文多轮会话数据，加上来自shareGPT的70K真实会话数据，总共获取250K指令数据。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个基于聊天的大型语言模型，由 GSAI 的研究人员开发，中国人民大学。它是在微调 LLaMA 的基础上开发的，具有高质量的中英文指令。玉兰聊天可以与用户聊天，以很好地遵循英文或中文的指示，量化后可以部署在一个图形处理器(A800-80G 或 RTX3090)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新颖的指令数据构建+LLaMA+分布式训练</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dandelionsllm/pandallm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2305.03025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Llama-7B, -13B, -33B, -65B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行中文领域上的持续预训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用了接近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并针对推理能力在中文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> benchmark </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上进行了评测，开源了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>LLaMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的流水线并行的原型库，集成了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Deepspeed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加速框架，支持模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pretrain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>finetune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>lora</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/brightmart/nlp_chinese_corpus</t>
+  </si>
+  <si>
+    <t>中文 instruction-tuning</t>
+  </si>
+  <si>
+    <t>维基百科(wiki2019zh)，100万个结构良好的中文词条
+新闻语料(news2016zh)，250万篇新闻，含关键词、描述
+百科问答(baike2018qa)，150万个带问题类型的问答
+社区问答json版(webtext2019zh)，410万个高质量社区问答，适合训练超大模型
+翻译语料(translation2019zh)，520万个中英文句子对
+Chinese Open Instruction Generalist (COIG)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panda</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用SGD取训练Panda LLMs;
+2.Panda7B的batch_size为8192， Panda13B的batch_size为4096；
+3.DeepSpeed ZERO-1 bfloat16；
+4.Panda-7B 耗时7天，Panda-13B 耗时14天。
+5.16块A100 80GB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过中文医学指令精调/指令微调(Instruct-tuning) 的LLaMA-7B模型。我们通过医学知识图谱和GPT3.5 API构建了中文医学指令数据集，并在此基础上对LLaMA进行了指令微调，提高了LLaMA在医疗领域的问答效果。提供了训练过程的记录，https://wandb.ai/thinksoso/llama_med/runs/a5wgcnzt/overview?workspace=user-thinksoso</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LLaMA+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instruction-tuning</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA-7B+Instruct-tuning</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在一张A100-SXM-80GB显卡上进行了训练，训练总轮次10轮，耗时约2h17m。batch_size=128的情况下显存占用在40G左右。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cMeKG。医学知识库围绕疾病、药物、检查指标等构建，字段包括并发症，高危因素，组织学检查，临床症状，药物治疗，辅助治疗等 总共八千条数据集</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中文领域中使用Qlora训练的模型，使用1张H100训练了1000 step，声称达到了中文最好成绩。提供了较多的训练细节；第一个开源的基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QLoRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中文大语言模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the First QLoRA based 33B fully open-source Chinese LLM
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超参Grid Search实验：
+Batch size: 16 (QLoRA Appendix B.4和Table 9)
+Max steps: 10000 (QLoRA Appendix B.4和Table 9)
+Learning rate: 1e-4 (QLoRA Appendix B.4和Table 9)
+LoRA r=64, alpha=16 (QLoRA Appendix B.2)
+source_max_len=512, target_max_len=512，需要保证大部分的training sample没有truncate，能完整的把信息训练到模型中，根据脚本中的估计，512大概可以覆盖大部分的样本长度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于QLoRA开源的33B guanaco训练</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anima</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese-Vicuna/本草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B, 13B, 33B,65B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-bit QLoRA tuning of LLaMA </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OASST1 dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://huggingface.co/datasets/timdettmers/openassistant-guanaco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OASST1 dataset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8K</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学知识库围绕疾病、药物、检查指标等构建，字段包括并发症，高危因素，组织学检查，临床症状，药物治疗，辅助治疗等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/SCIR-HI/Huatuo-Llama-Med-Chinese/blob/main/data/llama_data.json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama_data.json</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/timdettmers/guanaco-33b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过对 OASST1数据集上的 LLaMA 基本模型进行4位 QLoRA 调优而获得的开源微调聊天机器人。它们有7B、13B、33B 和65B 参数大小。</t>
+  </si>
+  <si>
+    <t>1.4 bit QLoRA+SFT
+2.LoRA r=64  alpha = 16
+3.Adam beta2 = 0.999, max grad norm = 0.3 
+4.LoRA dropout = 0.1
+5.FT process, constant learning rate schedule and paged AdamW optimizer.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TigerBot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lonePatient/awesome-pretrained-chinese-nlp-models/blob/main/README.md#%E4%B8%AD%E6%96%87%E6%8C%87%E4%BB%A4%E6%95%B0%E6%8D%AE%E9%9B%86</t>
+  </si>
+  <si>
+    <t>百川智能</t>
+  </si>
+  <si>
+    <t>https://github.com/baichuan-inc/Baichuan-13B</t>
+  </si>
+  <si>
+    <t>7B、13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baichuan-13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Baichuan-13B 是由百川智能继 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Baichuan-7B 之后开发的包含 130 亿参数的开源可商用的大规模语言模型，在权威的中文和英文 benchmark 上均取得同尺寸最好的效果。</t>
+    </r>
+  </si>
+  <si>
+    <t>未找到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardLM</t>
+  </si>
+  <si>
+    <t>operatorx</t>
+  </si>
+  <si>
+    <t>7B/13B/30B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nlpxucan/WizardLM</t>
+  </si>
+  <si>
+    <r>
+      <t>alpaca_data.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/nlpxucan/WizardLM/blob/main/training/data/alpaca_data.json</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpaca_data.json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2304.12244</t>
+  </si>
+  <si>
+    <t>Transformer </t>
+  </si>
+  <si>
+    <t>ChatGLM2—6B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardCoder</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>15B</t>
+  </si>
+  <si>
+    <t>BLOOMZ/llama</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">llama，Falcon </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>llama（33B guanaco）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B 13B 30B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2306.08568</t>
+  </si>
+  <si>
+    <t>StarCoder 15B</t>
+  </si>
+  <si>
+    <t>提出一种新颖的方式：利用LLM替代人类生成难易程度不同的指令数据，基于原始的指令数据集，利用Evol-instruct一步步将其重写成复杂的指令数据，然后汇集所有生成数据，微调了LLaMA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code Alpaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20K)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ode Alpaca指令数据集上，利用Evol-Instruct技术生成数据，经过几轮迭代，合并所有数据，微调StarCoder</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Evol-Instruct技术生成代码领域内的指令数据，微调StarCoder，在代码领域效果超过Claude和Bard，开源模型权重和代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海人工智能实验室</t>
+  </si>
+  <si>
+    <t>书生·浦语-chat</t>
+  </si>
+  <si>
+    <t>7B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternLM ，即书生·浦语大模型，包含面向实用场景的70亿参数基础模型与对话模型 （InternLM-7B）。模型具有以下特点：
+使用上万亿高质量预料，建立模型超强知识体系；
+支持8k语境窗口长度，实现更长输入与更强推理体验；
+通用工具调用能力，支持用户灵活自助搭建流程；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/InternLM/InternLM</t>
+  </si>
+  <si>
+    <t>InternLM 深度整合了 Flash-Attention, Apex 等高性能模型算子，提高了训练效率。通过构建 Hybrid Zero 技术，实现计算和通信的高效重叠，大幅降低了训练过程中的跨节点通信流量。InternLM 支持 7B 模型从 8 卡扩展到 1024 卡，千卡规模下加速效率可高达 90%，训练吞吐超过 180TFLOPS，平均单卡每秒处理的 token 数量超过3600。</t>
+  </si>
+  <si>
+    <t>Alpaca 数据集(微调)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>（中文）通用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShenNong-TCM-LLM</t>
+  </si>
+  <si>
+    <t>michael-wzhu</t>
+  </si>
+  <si>
+    <t>ShenNong-TCM :
+这一模型的训练数据为中医药指令数据集ShenNong_TCM_Dataset。
+ChatMed_TCM_Dataset以我们开源的中医药知识图谱为基础；
+采用以实体为中心的自指令方法entity-centric self-instruct，调用ChatGPT得到11w+的围绕中医药的指令数据；
+ShenNong-TCM模型也是以LlaMA为底座，采用LoRA (rank=16)微调得到。微调代码与ChatMed代码库相同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/michael-wzhu/ShenNong-TCM-LLM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/michaelwzhu/ShenNong_TCM_Dataset</t>
+  </si>
+  <si>
+    <t>中医药指令数据集（https://huggingface.co/datasets/michaelwzhu/ShenNong_TCM_Dataset）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学模型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文LlaMA-7b模型进行LoRA微调</t>
+  </si>
+  <si>
+    <t>中医药指令数据集ShenNong_TCM_Dataset</t>
+  </si>
+  <si>
+    <t>中医药指令数据集ShenNong_TCM_Dataset的v0.2版本，数据量达到11w+;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1W+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenNong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微调参考ChatMed代码库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学知识工场</t>
+  </si>
+  <si>
+    <t>通用（中英）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Abbey4799/CuteGPT</t>
+  </si>
+  <si>
+    <t>CuteGPT是复旦大学知识工场实验室推出的一个支持中英双语的开源对话语言模型，基于Llama模型结构进行改进和扩展，规模为13B（130亿）参数，可以在单张3090显卡上进行int8精度的推理。CuteGPT基于Llama模型，修改了中文词表并进行了大量的预训练，提高了对中文的理解能力，后续经过对话指令微调，提升了模型对指令的理解能力。
+在KW-CuteGPT-7b版本的基础上，KW-CuteGPT-13b的知识准确性、对复杂指令的理解、长文本理解能力、推理能力、忠实问答等能力均有提升。目前KW-CuteGPT-13b版本模型在部分测评任务中能够超越绝大多数同量级模型。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B,13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuteGPT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于扩充中文词表进行预训练
++全参数指令微调+基于LoRA指令微调</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaMA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robin </t>
+  </si>
+  <si>
+    <t>https://github.com/OptimalScale/LMFlow</t>
+  </si>
+  <si>
+    <t>7B 13B 33B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robin (罗宾)是香港科技大学LMFlow团队开发的中英双语大语言模型。仅使用180K条数据微调得到的Robin第二代模型，在Huggingface榜单上达到了第一名的成绩。LMFlow支持用户快速训练个性化模型，仅需单张3090和5个小时即可微调70亿参数定制化模型。</t>
+  </si>
+  <si>
+    <t>香港科技大学LMFlow团队</t>
+  </si>
+  <si>
+    <t>LMFlow Dataset                                                                  • ShareGPT: randomly sample 50K English data and 10K Chinese data from ShareGPT 
+• GPT-4-LLM : 52K English data from GPT-4-LLM 6
+• BELLE: randomly sample 80K Chinese data from BELLE 7.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2306.12420.pdf</t>
+  </si>
+  <si>
+    <t>Firefly</t>
+  </si>
+  <si>
+    <t>Firefly(流萤) 是一个开源的中文大语言模型项目，开源包括数据、微调代码、多个基于Bloom、baichuan等微调好的模型等；支持全量参数指令微调、QLoRA低成本高效指令微调、LoRA指令微调；支持绝大部分主流的开源大模型，如百川baichuan、Ziya、Bloom、LLaMA等。持lora与base model进行权重合并，推理更便捷。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/yangjianxin1/Firefly</t>
+  </si>
+  <si>
+    <t>BLOOM，Baichuan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文对话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量微调+QLoRA</t>
+  </si>
+  <si>
+    <r>
+      <t>school_math_0.25M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,firefly-train-1.1M,moss-003-sft-data,ultrachat,WizardLM_evol_instruct_V2_143k</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>firefly-train-1.1M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>irefly</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收集了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种常见的中文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务的数据，并且构造了许多与中华文化相关的数据，如对联、作诗、文言文翻译、散文、金庸小说等。对于每个任务，由人工书写若干种指令模板，保证数据的高质量与丰富度，数据量为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>115W</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/YeungNLP/firefly-train-1.1M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultrachat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/YeungNLP/ultrachat</t>
+  </si>
+  <si>
+    <t>由清华大学开源的英文多轮对话数据，包含140万+数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140W+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由WizardLM项目开源的英文指令微调数据集，通过Evol-Instruct方法让指令进化，加强指令的复杂度，以提升模型对复杂指令的遵循能力。包含143k条数据。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/YeungNLP/WizardLM_evol_instruct_V2_143k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/nlpxucan/WizardLM/blob/main/training/data/alpaca_data.json</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardLM_evol_instruct_V2_143k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>143K+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_math_0.25M</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/YeungNLP/school_math_0.25M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">由BELLE项目组开源的数学运算指令数据，包含25万条数据。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25W+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatRWKV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开源了一系列基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>RWKV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型（包括英文和中文），发布了包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Raven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Novel-ChnEng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Novel-Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Novel-ChnEng-ChnPro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等模型，可以直接闲聊及进行诗歌，小说等创作，包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>7B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>14B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等规模的模型。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/BlinkDL/ChatRWKV</t>
+  </si>
+  <si>
+    <t>7B 14B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2305.13048</t>
+  </si>
+  <si>
+    <t>Aquila</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由智源研究院发布，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aquila</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言大模型在技术上继承了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>GPT-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>LLaMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等的架构设计优点，替换了一批更高效的底层算子实现、重新设计实现了中英双语的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>tokenizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，升级了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMTrain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并行训练方法，是在中英文高质量语料基础上从０开始训练的，通过数据质量的控制、多种训练的优化方法，实现在更小的数据集、更短的训练时间，获得比其它开源模型更优的性能。也是首个支持中英双语知识、支持商用许可协议、符合国内数据合规需要的大规模开源语言模型。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/FlagAI-Open/FlagAI/tree/master/examples/Aquila</t>
+  </si>
+  <si>
+    <t>7B 13B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>智源研究院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnowLM</t>
+  </si>
+  <si>
+    <t>KnowLM项目旨在发布开源大模型框架及相应模型权重以助力减轻知识谬误问题，包括大模型的知识难更新及存在潜在的错误和偏见等。该项目一期发布了基于Llama的抽取大模型智析，使用中英文语料对LLaMA（13B）进行进一步全量预训练，并基于知识图谱转换指令技术对知识抽取任务进行优化。</t>
+  </si>
+  <si>
+    <t>https://github.com/zjunlp/KnowLM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）使用中文语料首先对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>LLaMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>13B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）进行进一步全量预训练，在尽可能保留原来的英文和代码能力的前提下，进一步提高模型对于中文理解能力和丰富模型的知识储备；接着（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）使用指令数据集对第一步的模型微调，来提高语言模型对于人类抽取指令的理解。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全量预训练阶段+使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LoRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的指令微调阶段</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>COT（中英文） 202,333
+通用数据集（中英文） 105,216
+代码数据集（中英文） 44,688
+英文指令抽取数据集 537,429
+中文指令抽取数据集 486,768</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1458,11 +3782,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <scheme val="minor"/>
     </font>
@@ -1510,12 +3829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF4B5563"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -1537,6 +3850,86 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B5563"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1566,14 +3959,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1582,41 +3972,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1894,40 +4326,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="40.625" style="24" customWidth="1"/>
     <col min="2" max="2" width="53.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="80.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="80.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="43.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="14.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1936,150 +4369,153 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>188</v>
+      <c r="I1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="105.75" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>193</v>
+      <c r="D2" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="L2">
         <v>20230706</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>199</v>
+    <row r="3" spans="1:13" ht="105.75" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="L3">
         <v>20230706</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>204</v>
+    <row r="4" spans="1:13" ht="105.75" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>210</v>
+        <v>176</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="L4">
         <v>20230706</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="162">
-      <c r="A5" s="8" t="s">
-        <v>222</v>
+    <row r="5" spans="1:13" ht="81">
+      <c r="A5" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -2088,33 +4524,36 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="162">
-      <c r="A6" t="s">
+      <c r="I5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="81">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -2123,68 +4562,71 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="51" customHeight="1">
-      <c r="A7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="148.5">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
+      <c r="E7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="148.5">
+      <c r="A8" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
@@ -2193,34 +4635,37 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="108">
-      <c r="A9" t="s">
+      <c r="G8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="108">
+      <c r="A9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>260</v>
+      <c r="C9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2228,453 +4673,896 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="I9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="67.5">
+      <c r="A10" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+      <c r="C10" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>34</v>
+      <c r="H10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="189.75">
+      <c r="A11" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
+        <v>257</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>39</v>
+      <c r="F11" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="162">
+      <c r="A12" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="108">
+      <c r="A13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
+      <c r="D13" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27">
-      <c r="A14" t="s">
-        <v>48</v>
+      <c r="H13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="172.5">
+      <c r="A14" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
+      <c r="H14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="108">
+      <c r="A15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="148.5">
+      <c r="A16" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
+      <c r="D16" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="40.5">
-      <c r="A17" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="94.5">
+      <c r="A17" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>66</v>
+      <c r="H17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="24" t="s">
+        <v>295</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>68</v>
+      <c r="D18" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="40.5">
-      <c r="A19" t="s">
-        <v>71</v>
+      <c r="F18" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="135">
+      <c r="A19" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="67.5">
-      <c r="A20" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="67.5">
+      <c r="A20" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27">
-      <c r="A21" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="256.5">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="148.5">
+      <c r="A22" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>92</v>
+      <c r="D22" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="40.5">
-      <c r="A23" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="103.5">
+      <c r="A23" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="40.5">
-      <c r="A24" t="s">
-        <v>98</v>
+      <c r="F23" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="94.5">
+      <c r="A24" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="40.5">
-      <c r="A25" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="175.5">
+      <c r="A25" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>109</v>
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="81">
+      <c r="A26" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>105</v>
+      <c r="D26" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
+        <v>87</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="54">
+      <c r="A27" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="54">
+      <c r="A28" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="40.5">
+      <c r="A29" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="138">
+      <c r="A30" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="148.5">
+      <c r="A31" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="175.5">
+      <c r="A32" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="103.5">
+      <c r="A33" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="94.5">
+      <c r="A34" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" t="s">
+        <v>418</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="83.25">
+      <c r="A35" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="151.5">
+      <c r="A36" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>450</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="151.5">
+      <c r="A37" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" t="s">
+        <v>455</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="1"/>
+      <c r="E38" s="6"/>
+      <c r="H38" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
@@ -2699,503 +5587,739 @@
     <hyperlink ref="B24" r:id="rId21"/>
     <hyperlink ref="B25" r:id="rId22"/>
     <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="M5" r:id="rId24"/>
+    <hyperlink ref="M8" r:id="rId25"/>
+    <hyperlink ref="M12" r:id="rId26"/>
+    <hyperlink ref="F27" r:id="rId27" display="https://github.com/baichuan-inc"/>
+    <hyperlink ref="H27" r:id="rId28" display="https://github.com/baichuan-inc/baichuan-7B"/>
+    <hyperlink ref="F28" r:id="rId29" display="https://github.com/nlpxucan"/>
+    <hyperlink ref="F29" r:id="rId30" display="https://github.com/nlpxucan"/>
+    <hyperlink ref="F30" r:id="rId31" display="https://github.com/InternLM"/>
+    <hyperlink ref="F31" r:id="rId32" display="https://github.com/michael-wzhu"/>
+    <hyperlink ref="B31" r:id="rId33"/>
+    <hyperlink ref="F32" r:id="rId34" display="http://kw.fudan.edu.cn/"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="M35" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="69.5" customWidth="1"/>
+    <col min="4" max="4" width="69.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>215</v>
+        <v>91</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>119</v>
+      <c r="A2" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>218</v>
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>124</v>
+      <c r="A3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>217</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>127</v>
+      <c r="A4" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>217</v>
+        <v>103</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>131</v>
+      <c r="A5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>214</v>
+        <v>96</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" t="s">
-        <v>134</v>
+      <c r="A6" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>137</v>
+      <c r="A7" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>140</v>
+      <c r="A8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>141</v>
+      <c r="D8" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>142</v>
+      <c r="A9" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
+      <c r="A15" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="108">
+      <c r="A19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>144</v>
       </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="A10" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="D19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27">
+      <c r="A21" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D22" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="108">
-      <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" t="s">
-        <v>179</v>
-      </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25">
-      <c r="A23" s="8" t="s">
-        <v>243</v>
+      <c r="A23" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>244</v>
+        <v>208</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25">
-      <c r="A24" t="s">
-        <v>240</v>
+      <c r="A24" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="40.5">
+      <c r="A25" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="81">
+      <c r="A26" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27">
+      <c r="A27" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48.75">
+      <c r="A33" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="27">
+      <c r="A35" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="27">
+      <c r="A36" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" s="6" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -3218,8 +6342,65 @@
     <hyperlink ref="C22" r:id="rId19"/>
     <hyperlink ref="C10" r:id="rId20"/>
     <hyperlink ref="C24" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="F29" r:id="rId24" display="https://github.com/nlpxucan/WizardLM"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://huggingface.co/datasets/michaelwzhu/ShenNong_TCM_Dataset"/>
+    <hyperlink ref="C33" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
+    <hyperlink ref="A36" r:id="rId28" display="https://huggingface.co/datasets/YeungNLP/school_math_0.25M"/>
+    <hyperlink ref="C36" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="68.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>